--- a/outputs/invoices.xlsx
+++ b/outputs/invoices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="446">
   <si>
     <t>EPI-USE Generated Invoices</t>
   </si>
@@ -26,372 +26,972 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>Catering Service - Team Building Event</t>
+  </si>
+  <si>
+    <t>799800.0</t>
+  </si>
+  <si>
+    <t>Advertising Space - Online Platform</t>
+  </si>
+  <si>
+    <t>389012.0</t>
+  </si>
+  <si>
+    <t>Data Backup Solution Subscription</t>
+  </si>
+  <si>
+    <t>862318.0</t>
+  </si>
+  <si>
+    <t>Monthly Subscription for Financial Software</t>
+  </si>
+  <si>
+    <t>406545.0</t>
+  </si>
+  <si>
+    <t>Software Upgrade and Maintenance</t>
+  </si>
+  <si>
+    <t>960824.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2796.0</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>3421295.0</t>
+  </si>
+  <si>
+    <t>Graphic Design Service - Brochure Design</t>
+  </si>
+  <si>
+    <t>567556.0</t>
+  </si>
+  <si>
+    <t>Employee Training Manuals Printing (50 copies)</t>
+  </si>
+  <si>
+    <t>101691.0</t>
+  </si>
+  <si>
+    <t>Consultation Fee</t>
+  </si>
+  <si>
+    <t>737531.0</t>
+  </si>
+  <si>
+    <t>Customized T-shirts for Team (Set of 5)</t>
+  </si>
+  <si>
+    <t>5201.0</t>
+  </si>
+  <si>
+    <t>Webinar Hosting Service</t>
+  </si>
+  <si>
+    <t>310899.0</t>
+  </si>
+  <si>
+    <t>13891.0</t>
+  </si>
+  <si>
+    <t>1736769.0</t>
+  </si>
+  <si>
+    <t>Maintenance Kit for Equipment X</t>
+  </si>
+  <si>
+    <t>10607.0</t>
+  </si>
+  <si>
+    <t>Event Planning Service - Company Anniversary Celebration</t>
+  </si>
+  <si>
+    <t>293166.0</t>
+  </si>
+  <si>
+    <t>Cloud Storage Fee</t>
+  </si>
+  <si>
+    <t>532391.0</t>
+  </si>
+  <si>
+    <t>Printed Marketing Materials - Flyers (100 pieces</t>
+  </si>
+  <si>
+    <t>80859.0</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>361408.0</t>
+  </si>
+  <si>
+    <t>66016.0</t>
+  </si>
+  <si>
+    <t>1344447.0</t>
+  </si>
+  <si>
+    <t>Training Session - Employee Development</t>
+  </si>
+  <si>
+    <t>333066.0</t>
+  </si>
+  <si>
+    <t>Domain Name Registration Renewal</t>
+  </si>
+  <si>
+    <t>736493.0</t>
+  </si>
+  <si>
+    <t>Virtual Reality Equipment Rental - Team Building Activity</t>
+  </si>
+  <si>
+    <t>956845.0</t>
+  </si>
+  <si>
+    <t>374057.0</t>
+  </si>
+  <si>
+    <t>Social Media Marketing Campaign</t>
+  </si>
+  <si>
+    <t>304704.0</t>
+  </si>
+  <si>
+    <t>575370.0</t>
+  </si>
+  <si>
+    <t>3280535.0</t>
+  </si>
+  <si>
+    <t>205990.0</t>
+  </si>
+  <si>
+    <t>327157.0</t>
+  </si>
+  <si>
+    <t>646675.0</t>
+  </si>
+  <si>
+    <t>Coffee Machine Purchase for Office</t>
+  </si>
+  <si>
+    <t>807868.0</t>
+  </si>
+  <si>
+    <t>Conference Registration Fee</t>
+  </si>
+  <si>
+    <t>159665.0</t>
+  </si>
+  <si>
+    <t>2147355.0</t>
+  </si>
+  <si>
+    <t>156313.0</t>
+  </si>
+  <si>
+    <t>Mobile App Development - Phase 1</t>
+  </si>
+  <si>
+    <t>789453.0</t>
+  </si>
+  <si>
+    <t>Podcast Production Service - Episode Editing</t>
+  </si>
+  <si>
+    <t>159805.0</t>
+  </si>
+  <si>
+    <t>58698.0</t>
+  </si>
+  <si>
+    <t>135160.0</t>
+  </si>
+  <si>
+    <t>93781.0</t>
+  </si>
+  <si>
+    <t>1393210.0</t>
+  </si>
+  <si>
+    <t>213693.0</t>
+  </si>
+  <si>
+    <t>271340.0</t>
+  </si>
+  <si>
+    <t>Bulk Office Paper Purchase</t>
+  </si>
+  <si>
+    <t>101823.0</t>
+  </si>
+  <si>
+    <t>778674.0</t>
+  </si>
+  <si>
+    <t>676555.0</t>
+  </si>
+  <si>
+    <t>Employee Recognition Awards (Set of 10)</t>
+  </si>
+  <si>
+    <t>134100.0</t>
+  </si>
+  <si>
+    <t>2176185.0</t>
+  </si>
+  <si>
+    <t>89277.0</t>
+  </si>
+  <si>
+    <t>SEO Optimization Service</t>
+  </si>
+  <si>
+    <t>166766.0</t>
+  </si>
+  <si>
+    <t>187534.0</t>
+  </si>
+  <si>
+    <t>857976.0</t>
+  </si>
+  <si>
+    <t>46946.0</t>
+  </si>
+  <si>
+    <t>839998.0</t>
+  </si>
+  <si>
+    <t>2188497.0</t>
+  </si>
+  <si>
+    <t>239934.0</t>
+  </si>
+  <si>
+    <t>770982.0</t>
+  </si>
+  <si>
+    <t>Professional Development Workshop Registration</t>
+  </si>
+  <si>
+    <t>92005.0</t>
+  </si>
+  <si>
+    <t>Professional Photography Service - Team Headshots</t>
+  </si>
+  <si>
+    <t>607546.0</t>
+  </si>
+  <si>
+    <t>Travel Expenses - Client Meeting</t>
+  </si>
+  <si>
+    <t>909169.0</t>
+  </si>
+  <si>
+    <t>958884.0</t>
+  </si>
+  <si>
+    <t>3578520.0</t>
+  </si>
+  <si>
+    <t>53535.0</t>
+  </si>
+  <si>
+    <t>482866.0</t>
+  </si>
+  <si>
+    <t>Monthly Hosting Fee for Website</t>
+  </si>
+  <si>
+    <t>774032.0</t>
+  </si>
+  <si>
+    <t>189213.0</t>
+  </si>
+  <si>
+    <t>Security System Installation for Office</t>
+  </si>
+  <si>
+    <t>810953.0</t>
+  </si>
+  <si>
+    <t>329751.0</t>
+  </si>
+  <si>
+    <t>2640350.0</t>
+  </si>
+  <si>
+    <t>635992.0</t>
+  </si>
+  <si>
+    <t>194263.0</t>
+  </si>
+  <si>
+    <t>616904.0</t>
+  </si>
+  <si>
+    <t>468040.0</t>
+  </si>
+  <si>
+    <t>984098.0</t>
+  </si>
+  <si>
+    <t>795351.0</t>
+  </si>
+  <si>
+    <t>3694648.0</t>
+  </si>
+  <si>
+    <t>Project Management Software Subscription</t>
+  </si>
+  <si>
+    <t>278143.0</t>
+  </si>
+  <si>
+    <t>944533.0</t>
+  </si>
+  <si>
+    <t>67901.0</t>
+  </si>
+  <si>
+    <t>466537.0</t>
+  </si>
+  <si>
+    <t>16157.0</t>
+  </si>
+  <si>
+    <t>715147.0</t>
+  </si>
+  <si>
+    <t>2488418.0</t>
+  </si>
+  <si>
+    <t>76090.0</t>
+  </si>
+  <si>
+    <t>378051.0</t>
+  </si>
+  <si>
+    <t>Office Furniture Purchase - Desk and Chair</t>
+  </si>
+  <si>
+    <t>874539.0</t>
+  </si>
+  <si>
+    <t>319470.0</t>
+  </si>
+  <si>
+    <t>Virtual Assistant Service - 20 hours</t>
+  </si>
+  <si>
+    <t>90849.0</t>
+  </si>
+  <si>
+    <t>449965.0</t>
+  </si>
+  <si>
+    <t>2188964.0</t>
+  </si>
+  <si>
+    <t>775931.0</t>
+  </si>
+  <si>
+    <t>934925.0</t>
+  </si>
+  <si>
+    <t>37150.0</t>
+  </si>
+  <si>
+    <t>129677.0</t>
+  </si>
+  <si>
+    <t>690347.0</t>
+  </si>
+  <si>
+    <t>497582.0</t>
+  </si>
+  <si>
+    <t>3065612.0</t>
+  </si>
+  <si>
+    <t>678545.0</t>
+  </si>
+  <si>
+    <t>685458.0</t>
+  </si>
+  <si>
+    <t>136739.0</t>
+  </si>
+  <si>
+    <t>821359.0</t>
+  </si>
+  <si>
+    <t>432611.0</t>
+  </si>
+  <si>
+    <t>Office Supplies - Pens (Pack of 20)</t>
+  </si>
+  <si>
+    <t>660564.0</t>
+  </si>
+  <si>
+    <t>3415276.0</t>
+  </si>
+  <si>
+    <t>291094.0</t>
+  </si>
+  <si>
+    <t>749207.0</t>
+  </si>
+  <si>
+    <t>297955.0</t>
+  </si>
+  <si>
+    <t>973870.0</t>
+  </si>
+  <si>
+    <t>222183.0</t>
+  </si>
+  <si>
+    <t>780033.0</t>
+  </si>
+  <si>
+    <t>3314342.0</t>
+  </si>
+  <si>
+    <t>989794.0</t>
+  </si>
+  <si>
+    <t>51878.0</t>
+  </si>
+  <si>
+    <t>623529.0</t>
+  </si>
+  <si>
+    <t>608876.0</t>
+  </si>
+  <si>
+    <t>711356.0</t>
+  </si>
+  <si>
+    <t>40733.0</t>
+  </si>
+  <si>
+    <t>3026166.0</t>
+  </si>
+  <si>
+    <t>444609.0</t>
+  </si>
+  <si>
+    <t>268077.0</t>
+  </si>
+  <si>
+    <t>146772.0</t>
+  </si>
+  <si>
+    <t>194119.0</t>
+  </si>
+  <si>
+    <t>16667.0</t>
+  </si>
+  <si>
+    <t>125277.0</t>
+  </si>
+  <si>
+    <t>1195521.0</t>
+  </si>
+  <si>
+    <t>928359.0</t>
+  </si>
+  <si>
+    <t>867804.0</t>
+  </si>
+  <si>
+    <t>965433.0</t>
+  </si>
+  <si>
+    <t>63912.0</t>
+  </si>
+  <si>
+    <t>80373.0</t>
+  </si>
+  <si>
+    <t>Translation Service - Document Translation (1000 words</t>
+  </si>
+  <si>
+    <t>394191.0</t>
+  </si>
+  <si>
+    <t>3300072.0</t>
+  </si>
+  <si>
+    <t>358888.0</t>
+  </si>
+  <si>
+    <t>977810.0</t>
+  </si>
+  <si>
+    <t>492124.0</t>
+  </si>
+  <si>
+    <t>944033.0</t>
+  </si>
+  <si>
+    <t>20097.0</t>
+  </si>
+  <si>
+    <t>891598.0</t>
+  </si>
+  <si>
+    <t>3684550.0</t>
+  </si>
+  <si>
+    <t>393447.0</t>
+  </si>
+  <si>
+    <t>Virtual Reality Equipment Rental - Team Building Activi</t>
+  </si>
+  <si>
+    <t>466039.0</t>
+  </si>
+  <si>
+    <t>315818.0</t>
+  </si>
+  <si>
+    <t>Staff Uniforms (Set of 15)</t>
+  </si>
+  <si>
+    <t>742832.0</t>
+  </si>
+  <si>
+    <t>958255.0</t>
+  </si>
+  <si>
+    <t>217180.0</t>
+  </si>
+  <si>
+    <t>3093571.0</t>
+  </si>
+  <si>
+    <t>991989.0</t>
+  </si>
+  <si>
+    <t>638433.0</t>
+  </si>
+  <si>
+    <t>148296.0</t>
+  </si>
+  <si>
     <t>Printed Marketing Materials - Flyers (100 pieces)</t>
   </si>
   <si>
+    <t>837634.0</t>
+  </si>
+  <si>
+    <t>112471.0</t>
+  </si>
+  <si>
+    <t>Video Production Service - Promotional Video</t>
+  </si>
+  <si>
+    <t>23242.0</t>
+  </si>
+  <si>
+    <t>2752065.0</t>
+  </si>
+  <si>
+    <t>307698.0</t>
+  </si>
+  <si>
+    <t>13587.0</t>
+  </si>
+  <si>
+    <t>550245.0</t>
+  </si>
+  <si>
+    <t>254080.0</t>
+  </si>
+  <si>
+    <t>990985.0</t>
+  </si>
+  <si>
+    <t>521757.0</t>
+  </si>
+  <si>
+    <t>2638352.0</t>
+  </si>
+  <si>
+    <t>991078.0</t>
+  </si>
+  <si>
+    <t>183787.0</t>
+  </si>
+  <si>
+    <t>198685.0</t>
+  </si>
+  <si>
+    <t>Employee Recognition Awards (Set of 10</t>
+  </si>
+  <si>
+    <t>713130.0</t>
+  </si>
+  <si>
+    <t>426487.0</t>
+  </si>
+  <si>
+    <t>264503.0</t>
+  </si>
+  <si>
+    <t>2777670.0</t>
+  </si>
+  <si>
+    <t>Service Fee - Hourly Rate (5 hours)</t>
+  </si>
+  <si>
+    <t>274578.0</t>
+  </si>
+  <si>
+    <t>778879.0</t>
+  </si>
+  <si>
+    <t>506042.0</t>
+  </si>
+  <si>
+    <t>640868.0</t>
+  </si>
+  <si>
+    <t>744744.0</t>
+  </si>
+  <si>
+    <t>804591.0</t>
+  </si>
+  <si>
+    <t>3749702.0</t>
+  </si>
+  <si>
+    <t>50051.0</t>
+  </si>
+  <si>
+    <t>Software License Renewal</t>
+  </si>
+  <si>
+    <t>486072.0</t>
+  </si>
+  <si>
+    <t>671655.0</t>
+  </si>
+  <si>
+    <t>874758.0</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>765650.0</t>
+  </si>
+  <si>
+    <t>707116.0</t>
+  </si>
+  <si>
+    <t>3555302.0</t>
+  </si>
+  <si>
+    <t>344708.0</t>
+  </si>
+  <si>
+    <t>266300.0</t>
+  </si>
+  <si>
+    <t>752472.0</t>
+  </si>
+  <si>
+    <t>12885.0</t>
+  </si>
+  <si>
+    <t>540860.0</t>
+  </si>
+  <si>
+    <t>769923.0</t>
+  </si>
+  <si>
+    <t>2687148.0</t>
+  </si>
+  <si>
+    <t>712498.0</t>
+  </si>
+  <si>
+    <t>527744.0</t>
+  </si>
+  <si>
+    <t>803527.0</t>
+  </si>
+  <si>
+    <t>504078.0</t>
+  </si>
+  <si>
+    <t>297850.0</t>
+  </si>
+  <si>
+    <t>121762.0</t>
+  </si>
+  <si>
+    <t>2967459.0</t>
+  </si>
+  <si>
+    <t>692737.0</t>
+  </si>
+  <si>
+    <t>743405.0</t>
+  </si>
+  <si>
+    <t>278490.0</t>
+  </si>
+  <si>
+    <t>161624.0</t>
+  </si>
+  <si>
+    <t>739452.0</t>
+  </si>
+  <si>
+    <t>909145.0</t>
+  </si>
+  <si>
+    <t>3524853.0</t>
+  </si>
+  <si>
+    <t>845231.0</t>
+  </si>
+  <si>
+    <t>565809.0</t>
+  </si>
+  <si>
+    <t>1882.0</t>
+  </si>
+  <si>
+    <t>637467.0</t>
+  </si>
+  <si>
+    <t>684214.0</t>
+  </si>
+  <si>
+    <t>425353.0</t>
+  </si>
+  <si>
+    <t>3159956.0</t>
+  </si>
+  <si>
+    <t>64585.0</t>
+  </si>
+  <si>
+    <t>683539.0</t>
+  </si>
+  <si>
+    <t>545850.0</t>
+  </si>
+  <si>
+    <t>167138.0</t>
+  </si>
+  <si>
+    <t>264870.0</t>
+  </si>
+  <si>
+    <t>546307.0</t>
+  </si>
+  <si>
+    <t>2272289.0</t>
+  </si>
+  <si>
+    <t>935423.0</t>
+  </si>
+  <si>
+    <t>88918.0</t>
+  </si>
+  <si>
+    <t>226206.0</t>
+  </si>
+  <si>
+    <t>140760.0</t>
+  </si>
+  <si>
+    <t>166288.0</t>
+  </si>
+  <si>
+    <t>577381.0</t>
+  </si>
+  <si>
+    <t>2134976.0</t>
+  </si>
+  <si>
+    <t>216521.0</t>
+  </si>
+  <si>
+    <t>33332.0</t>
+  </si>
+  <si>
+    <t>39199.0</t>
+  </si>
+  <si>
+    <t>626738.0</t>
+  </si>
+  <si>
+    <t>358266.0</t>
+  </si>
+  <si>
+    <t>441831.0</t>
+  </si>
+  <si>
+    <t>1715887.0</t>
+  </si>
+  <si>
+    <t>223349.0</t>
+  </si>
+  <si>
+    <t>208276.0</t>
+  </si>
+  <si>
+    <t>11132.0</t>
+  </si>
+  <si>
+    <t>721086.0</t>
+  </si>
+  <si>
+    <t>471410.0</t>
+  </si>
+  <si>
+    <t>795928.0</t>
+  </si>
+  <si>
+    <t>2431181.0</t>
+  </si>
+  <si>
+    <t>582607.0</t>
+  </si>
+  <si>
+    <t>923123.0</t>
+  </si>
+  <si>
+    <t>209026.0</t>
+  </si>
+  <si>
+    <t>997370.0</t>
+  </si>
+  <si>
+    <t>524989.0</t>
+  </si>
+  <si>
+    <t>533832.0</t>
+  </si>
+  <si>
+    <t>3770947.0</t>
+  </si>
+  <si>
+    <t>957024.0</t>
+  </si>
+  <si>
+    <t>318560.0</t>
+  </si>
+  <si>
+    <t>419037.0</t>
+  </si>
+  <si>
+    <t>737268.0</t>
+  </si>
+  <si>
+    <t>474938.0</t>
+  </si>
+  <si>
+    <t>624739.0</t>
+  </si>
+  <si>
+    <t>3531566.0</t>
+  </si>
+  <si>
+    <t>651454.0</t>
+  </si>
+  <si>
+    <t>946316.0</t>
+  </si>
+  <si>
+    <t>345238.0</t>
+  </si>
+  <si>
+    <t>73653.0</t>
+  </si>
+  <si>
+    <t>82722.0</t>
+  </si>
+  <si>
+    <t>944252.0</t>
+  </si>
+  <si>
+    <t>3043635.0</t>
+  </si>
+  <si>
     <t>498929.0</t>
   </si>
   <si>
-    <t>Professional Photography Service - Team Headshots</t>
-  </si>
-  <si>
     <t>150501.0</t>
   </si>
   <si>
-    <t>Conference Registration Fee</t>
-  </si>
-  <si>
     <t>221686.0</t>
   </si>
   <si>
-    <t>Monthly Subscription for Financial Software</t>
-  </si>
-  <si>
     <t>126931.0</t>
   </si>
   <si>
-    <t>°</t>
-  </si>
-  <si>
     <t>538098.0</t>
   </si>
   <si>
-    <t>Catering Service - Team Building Event</t>
-  </si>
-  <si>
     <t>796124.0</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>2332269.0</t>
   </si>
   <si>
-    <t>Graphic Design Service - Brochure Design</t>
-  </si>
-  <si>
-    <t>53535.0</t>
-  </si>
-  <si>
-    <t>Data Backup Solution Subscription</t>
-  </si>
-  <si>
-    <t>482866.0</t>
-  </si>
-  <si>
-    <t>Monthly Hosting Fee for Website</t>
-  </si>
-  <si>
-    <t>774032.0</t>
-  </si>
-  <si>
-    <t>Customized T-shirts for Team (Set of 5)</t>
-  </si>
-  <si>
-    <t>189213.0</t>
-  </si>
-  <si>
-    <t>Security System Installation for Office</t>
-  </si>
-  <si>
-    <t>810953.0</t>
-  </si>
-  <si>
-    <t>Travel Expenses - Client Meeting</t>
-  </si>
-  <si>
-    <t>329751.0</t>
-  </si>
-  <si>
-    <t>2640350.0</t>
-  </si>
-  <si>
-    <t>50051.0</t>
-  </si>
-  <si>
-    <t>Software License Renewal</t>
-  </si>
-  <si>
-    <t>486072.0</t>
-  </si>
-  <si>
-    <t>Employee Recognition Awards (Set of 10)</t>
-  </si>
-  <si>
-    <t>671655.0</t>
-  </si>
-  <si>
-    <t>874758.0</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>765650.0</t>
-  </si>
-  <si>
-    <t>707116.0</t>
-  </si>
-  <si>
-    <t>3555302.0</t>
-  </si>
-  <si>
-    <t>Event Planning Service - Company Anniversary Celebration</t>
-  </si>
-  <si>
-    <t>213693.0</t>
-  </si>
-  <si>
-    <t>271340.0</t>
-  </si>
-  <si>
-    <t>Bulk Office Paper Purchase</t>
-  </si>
-  <si>
-    <t>101823.0</t>
-  </si>
-  <si>
-    <t>Software Upgrade and Maintenance</t>
-  </si>
-  <si>
-    <t>778674.0</t>
-  </si>
-  <si>
-    <t>676555.0</t>
-  </si>
-  <si>
-    <t>134100.0</t>
-  </si>
-  <si>
-    <t>2176185.0</t>
-  </si>
-  <si>
-    <t>Project Management Software Subscription</t>
-  </si>
-  <si>
-    <t>344708.0</t>
-  </si>
-  <si>
-    <t>266300.0</t>
-  </si>
-  <si>
-    <t>Coffee Machine Purchase for Office</t>
-  </si>
-  <si>
-    <t>752472.0</t>
-  </si>
-  <si>
-    <t>12885.0</t>
-  </si>
-  <si>
-    <t>Domain Name Registration Renewal</t>
-  </si>
-  <si>
-    <t>540860.0</t>
-  </si>
-  <si>
-    <t>769923.0</t>
-  </si>
-  <si>
-    <t>2687148.0</t>
-  </si>
-  <si>
-    <t>89277.0</t>
-  </si>
-  <si>
-    <t>SEO Optimization Service</t>
-  </si>
-  <si>
-    <t>166766.0</t>
-  </si>
-  <si>
-    <t>187534.0</t>
-  </si>
-  <si>
-    <t>Advertising Space - Online Platform</t>
-  </si>
-  <si>
-    <t>857976.0</t>
-  </si>
-  <si>
-    <t>46946.0</t>
-  </si>
-  <si>
-    <t>839998.0</t>
-  </si>
-  <si>
-    <t>2188497.0</t>
-  </si>
-  <si>
-    <t>799800.0</t>
-  </si>
-  <si>
-    <t>389012.0</t>
-  </si>
-  <si>
-    <t>862318.0</t>
-  </si>
-  <si>
-    <t>406545.0</t>
-  </si>
-  <si>
-    <t>960824.0</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2796.0</t>
-  </si>
-  <si>
-    <t>3421295.0</t>
-  </si>
-  <si>
-    <t>64585.0</t>
-  </si>
-  <si>
-    <t>683539.0</t>
-  </si>
-  <si>
-    <t>545850.0</t>
-  </si>
-  <si>
-    <t>167138.0</t>
-  </si>
-  <si>
-    <t>264870.0</t>
-  </si>
-  <si>
-    <t>546307.0</t>
-  </si>
-  <si>
-    <t>2272289.0</t>
-  </si>
-  <si>
-    <t>307698.0</t>
-  </si>
-  <si>
-    <t>13587.0</t>
-  </si>
-  <si>
-    <t>Office Furniture Purchase - Desk and Chair</t>
-  </si>
-  <si>
-    <t>550245.0</t>
-  </si>
-  <si>
-    <t>254080.0</t>
-  </si>
-  <si>
-    <t>Mobile App Development - Phase 1</t>
-  </si>
-  <si>
-    <t>990985.0</t>
-  </si>
-  <si>
-    <t>521757.0</t>
-  </si>
-  <si>
-    <t>2638352.0</t>
-  </si>
-  <si>
-    <t>991989.0</t>
-  </si>
-  <si>
-    <t>Consultation Fee</t>
-  </si>
-  <si>
-    <t>638433.0</t>
-  </si>
-  <si>
-    <t>148296.0</t>
-  </si>
-  <si>
-    <t>837634.0</t>
-  </si>
-  <si>
-    <t>112471.0</t>
-  </si>
-  <si>
-    <t>Video Production Service - Promotional Video</t>
-  </si>
-  <si>
-    <t>23242.0</t>
-  </si>
-  <si>
-    <t>2752065.0</t>
-  </si>
-  <si>
-    <t>205990.0</t>
-  </si>
-  <si>
-    <t>327157.0</t>
-  </si>
-  <si>
-    <t>646675.0</t>
-  </si>
-  <si>
-    <t>807868.0</t>
-  </si>
-  <si>
-    <t>159665.0</t>
-  </si>
-  <si>
-    <t>2147355.0</t>
-  </si>
-  <si>
-    <t>582607.0</t>
-  </si>
-  <si>
-    <t>923123.0</t>
-  </si>
-  <si>
-    <t>Social Media Marketing Campaign</t>
-  </si>
-  <si>
-    <t>209026.0</t>
-  </si>
-  <si>
-    <t>997370.0</t>
-  </si>
-  <si>
-    <t>524989.0</t>
-  </si>
-  <si>
-    <t>Webinar Hosting Service</t>
-  </si>
-  <si>
-    <t>533832.0</t>
-  </si>
-  <si>
-    <t>3770947.0</t>
-  </si>
-  <si>
-    <t>Staff Uniforms (Set of 15)</t>
+    <t>634972.0</t>
+  </si>
+  <si>
+    <t>250512.0</t>
+  </si>
+  <si>
+    <t>561843.0</t>
+  </si>
+  <si>
+    <t>369537.0</t>
+  </si>
+  <si>
+    <t>619018.0</t>
+  </si>
+  <si>
+    <t>449605.0</t>
+  </si>
+  <si>
+    <t>2885487.0</t>
   </si>
   <si>
     <t>523919.0</t>
   </si>
   <si>
-    <t>Podcast Production Service - Episode Editing</t>
-  </si>
-  <si>
     <t>73263.0</t>
   </si>
   <si>
     <t>51805.0</t>
   </si>
   <si>
-    <t>Professional Development Workshop Registration</t>
-  </si>
-  <si>
     <t>586541.0</t>
   </si>
   <si>
-    <t>Printed Marketing Materials - Flyers (100 pieces</t>
-  </si>
-  <si>
     <t>272141.0</t>
   </si>
   <si>
@@ -401,190 +1001,205 @@
     <t>1611773.0</t>
   </si>
   <si>
-    <t>567556.0</t>
-  </si>
-  <si>
-    <t>Employee Training Manuals Printing (50 copies)</t>
-  </si>
-  <si>
-    <t>101691.0</t>
-  </si>
-  <si>
-    <t>737531.0</t>
-  </si>
-  <si>
-    <t>5201.0</t>
-  </si>
-  <si>
-    <t>310899.0</t>
-  </si>
-  <si>
-    <t>13891.0</t>
-  </si>
-  <si>
-    <t>1736769.0</t>
-  </si>
-  <si>
-    <t>216521.0</t>
-  </si>
-  <si>
-    <t>33332.0</t>
-  </si>
-  <si>
-    <t>39199.0</t>
-  </si>
-  <si>
-    <t>626738.0</t>
-  </si>
-  <si>
-    <t>358266.0</t>
-  </si>
-  <si>
-    <t>Training Session - Employee Development</t>
-  </si>
-  <si>
-    <t>441831.0</t>
-  </si>
-  <si>
-    <t>1715887.0</t>
-  </si>
-  <si>
-    <t>239934.0</t>
-  </si>
-  <si>
-    <t>Cloud Storage Fee</t>
-  </si>
-  <si>
-    <t>770982.0</t>
-  </si>
-  <si>
-    <t>92005.0</t>
-  </si>
-  <si>
-    <t>607546.0</t>
-  </si>
-  <si>
-    <t>909169.0</t>
-  </si>
-  <si>
-    <t>958884.0</t>
-  </si>
-  <si>
-    <t>3578520.0</t>
-  </si>
-  <si>
-    <t>Maintenance Kit for Equipment X</t>
-  </si>
-  <si>
-    <t>10607.0</t>
-  </si>
-  <si>
-    <t>293166.0</t>
-  </si>
-  <si>
-    <t>532391.0</t>
-  </si>
-  <si>
-    <t>80859.0</t>
-  </si>
-  <si>
-    <t>361408.0</t>
-  </si>
-  <si>
-    <t>66016.0</t>
-  </si>
-  <si>
-    <t>1344447.0</t>
-  </si>
-  <si>
-    <t>156313.0</t>
-  </si>
-  <si>
-    <t>789453.0</t>
-  </si>
-  <si>
-    <t>159805.0</t>
-  </si>
-  <si>
-    <t>58698.0</t>
-  </si>
-  <si>
-    <t>135160.0</t>
-  </si>
-  <si>
-    <t>93781.0</t>
-  </si>
-  <si>
-    <t>1393210.0</t>
-  </si>
-  <si>
-    <t>634972.0</t>
-  </si>
-  <si>
-    <t>250512.0</t>
-  </si>
-  <si>
-    <t>561843.0</t>
-  </si>
-  <si>
-    <t>369537.0</t>
-  </si>
-  <si>
-    <t>619018.0</t>
-  </si>
-  <si>
-    <t>449605.0</t>
-  </si>
-  <si>
-    <t>2885487.0</t>
-  </si>
-  <si>
-    <t>Service Fee - Hourly Rate (5 hours)</t>
-  </si>
-  <si>
-    <t>223349.0</t>
-  </si>
-  <si>
-    <t>208276.0</t>
-  </si>
-  <si>
-    <t>11132.0</t>
-  </si>
-  <si>
-    <t>721086.0</t>
-  </si>
-  <si>
-    <t>471410.0</t>
-  </si>
-  <si>
-    <t>795928.0</t>
-  </si>
-  <si>
-    <t>2431181.0</t>
-  </si>
-  <si>
-    <t>678545.0</t>
-  </si>
-  <si>
-    <t>685458.0</t>
-  </si>
-  <si>
-    <t>136739.0</t>
-  </si>
-  <si>
-    <t>821359.0</t>
-  </si>
-  <si>
-    <t>432611.0</t>
-  </si>
-  <si>
-    <t>Office Supplies - Pens (Pack of 20)</t>
-  </si>
-  <si>
-    <t>660564.0</t>
-  </si>
-  <si>
-    <t>3415276.0</t>
+    <t>866576.0</t>
+  </si>
+  <si>
+    <t>652775.0</t>
+  </si>
+  <si>
+    <t>862416.0</t>
+  </si>
+  <si>
+    <t>901126.0</t>
+  </si>
+  <si>
+    <t>Translation Service - Document Translation</t>
+  </si>
+  <si>
+    <t>18841.0</t>
+  </si>
+  <si>
+    <t>2566.0</t>
+  </si>
+  <si>
+    <t>3304300.0</t>
+  </si>
+  <si>
+    <t>913231.0</t>
+  </si>
+  <si>
+    <t>87668.0</t>
+  </si>
+  <si>
+    <t>787487.0</t>
+  </si>
+  <si>
+    <t>767314.0</t>
+  </si>
+  <si>
+    <t>38935.0</t>
+  </si>
+  <si>
+    <t>791553.0</t>
+  </si>
+  <si>
+    <t>3386188.0</t>
+  </si>
+  <si>
+    <t>743926.0</t>
+  </si>
+  <si>
+    <t>603245.0</t>
+  </si>
+  <si>
+    <t>296000.0</t>
+  </si>
+  <si>
+    <t>593432.0</t>
+  </si>
+  <si>
+    <t>340447.0</t>
+  </si>
+  <si>
+    <t>6040.0</t>
+  </si>
+  <si>
+    <t>2583090.0</t>
+  </si>
+  <si>
+    <t>797493.0</t>
+  </si>
+  <si>
+    <t>163318.0</t>
+  </si>
+  <si>
+    <t>Translation Service - Document Translation (1000 words)</t>
+  </si>
+  <si>
+    <t>877045.0</t>
+  </si>
+  <si>
+    <t>53240.0</t>
+  </si>
+  <si>
+    <t>181479.0</t>
+  </si>
+  <si>
+    <t>394503.0</t>
+  </si>
+  <si>
+    <t>2467078.0</t>
+  </si>
+  <si>
+    <t>659142.0</t>
+  </si>
+  <si>
+    <t>649022.0</t>
+  </si>
+  <si>
+    <t>573616.0</t>
+  </si>
+  <si>
+    <t>575325.0</t>
+  </si>
+  <si>
+    <t>179922.0</t>
+  </si>
+  <si>
+    <t>4656.0</t>
+  </si>
+  <si>
+    <t>2641683.0</t>
+  </si>
+  <si>
+    <t>236966.0</t>
+  </si>
+  <si>
+    <t>8835.0</t>
+  </si>
+  <si>
+    <t>274184.0</t>
+  </si>
+  <si>
+    <t>Domain Name Registration Renewal SEO Optimization Service</t>
+  </si>
+  <si>
+    <t>940577.0</t>
+  </si>
+  <si>
+    <t>81605.0</t>
+  </si>
+  <si>
+    <t>1542167.0</t>
+  </si>
+  <si>
+    <t>103656.0</t>
+  </si>
+  <si>
+    <t>669085.0</t>
+  </si>
+  <si>
+    <t>946426.0</t>
+  </si>
+  <si>
+    <t>58524.0</t>
+  </si>
+  <si>
+    <t>Staff Uniforms (Set of 15</t>
+  </si>
+  <si>
+    <t>675849.0</t>
+  </si>
+  <si>
+    <t>557864.0</t>
+  </si>
+  <si>
+    <t>3011404.0</t>
+  </si>
+  <si>
+    <t>Widget A - 10 units</t>
+  </si>
+  <si>
+    <t>54169.0</t>
+  </si>
+  <si>
+    <t>937108.0</t>
+  </si>
+  <si>
+    <t>501654.0</t>
+  </si>
+  <si>
+    <t>393076.0</t>
+  </si>
+  <si>
+    <t>514071.0</t>
+  </si>
+  <si>
+    <t>12009.0</t>
+  </si>
+  <si>
+    <t>2412087.0</t>
+  </si>
+  <si>
+    <t>200685.0</t>
+  </si>
+  <si>
+    <t>149698.0</t>
+  </si>
+  <si>
+    <t>987318.0</t>
+  </si>
+  <si>
+    <t>830633.0</t>
+  </si>
+  <si>
+    <t>974304.0</t>
+  </si>
+  <si>
+    <t>584346.0</t>
+  </si>
+  <si>
+    <t>3726984.0</t>
   </si>
   <si>
     <t>304887.0</t>
@@ -593,9 +1208,6 @@
     <t>428973.0</t>
   </si>
   <si>
-    <t>Virtual Assistant Service - 20 hours</t>
-  </si>
-  <si>
     <t>478418.0</t>
   </si>
   <si>
@@ -611,181 +1223,46 @@
     <t>3128919.0</t>
   </si>
   <si>
-    <t>775931.0</t>
-  </si>
-  <si>
-    <t>934925.0</t>
-  </si>
-  <si>
-    <t>37150.0</t>
-  </si>
-  <si>
-    <t>129677.0</t>
-  </si>
-  <si>
-    <t>690347.0</t>
-  </si>
-  <si>
-    <t>497582.0</t>
-  </si>
-  <si>
-    <t>3065612.0</t>
-  </si>
-  <si>
-    <t>103656.0</t>
-  </si>
-  <si>
-    <t>669085.0</t>
-  </si>
-  <si>
-    <t>Translation Service - Document Translation (1000 words)</t>
-  </si>
-  <si>
-    <t>946426.0</t>
-  </si>
-  <si>
-    <t>58524.0</t>
-  </si>
-  <si>
-    <t>Staff Uniforms (Set of 15</t>
-  </si>
-  <si>
-    <t>675849.0</t>
-  </si>
-  <si>
-    <t>557864.0</t>
-  </si>
-  <si>
-    <t>3011404.0</t>
-  </si>
-  <si>
-    <t>659142.0</t>
-  </si>
-  <si>
-    <t>649022.0</t>
-  </si>
-  <si>
-    <t>573616.0</t>
-  </si>
-  <si>
-    <t>575325.0</t>
-  </si>
-  <si>
-    <t>179922.0</t>
-  </si>
-  <si>
-    <t>4656.0</t>
-  </si>
-  <si>
-    <t>2641683.0</t>
-  </si>
-  <si>
-    <t>200685.0</t>
-  </si>
-  <si>
-    <t>149698.0</t>
-  </si>
-  <si>
-    <t>987318.0</t>
-  </si>
-  <si>
-    <t>830633.0</t>
-  </si>
-  <si>
-    <t>974304.0</t>
-  </si>
-  <si>
-    <t>584346.0</t>
-  </si>
-  <si>
-    <t>3726984.0</t>
-  </si>
-  <si>
-    <t>743926.0</t>
-  </si>
-  <si>
-    <t>603245.0</t>
-  </si>
-  <si>
-    <t>296000.0</t>
-  </si>
-  <si>
-    <t>593432.0</t>
-  </si>
-  <si>
-    <t>340447.0</t>
-  </si>
-  <si>
-    <t>6040.0</t>
-  </si>
-  <si>
-    <t>2583090.0</t>
-  </si>
-  <si>
-    <t>358888.0</t>
-  </si>
-  <si>
-    <t>977810.0</t>
-  </si>
-  <si>
-    <t>492124.0</t>
-  </si>
-  <si>
-    <t>944033.0</t>
-  </si>
-  <si>
-    <t>20097.0</t>
-  </si>
-  <si>
-    <t>891598.0</t>
-  </si>
-  <si>
-    <t>3684550.0</t>
-  </si>
-  <si>
-    <t>957024.0</t>
-  </si>
-  <si>
-    <t>318560.0</t>
-  </si>
-  <si>
-    <t>419037.0</t>
-  </si>
-  <si>
-    <t>737268.0</t>
-  </si>
-  <si>
-    <t>474938.0</t>
-  </si>
-  <si>
-    <t>624739.0</t>
-  </si>
-  <si>
-    <t>3531566.0</t>
-  </si>
-  <si>
-    <t>866576.0</t>
-  </si>
-  <si>
-    <t>652775.0</t>
-  </si>
-  <si>
-    <t>862416.0</t>
-  </si>
-  <si>
-    <t>901126.0</t>
-  </si>
-  <si>
-    <t>Translation Service - Document Translation</t>
-  </si>
-  <si>
-    <t>18841.0</t>
-  </si>
-  <si>
-    <t>2566.0</t>
-  </si>
-  <si>
-    <t>3304300.0</t>
+    <t>982528.0</t>
+  </si>
+  <si>
+    <t>428581.0</t>
+  </si>
+  <si>
+    <t>387704.0</t>
+  </si>
+  <si>
+    <t>602758.0</t>
+  </si>
+  <si>
+    <t>588407.0</t>
+  </si>
+  <si>
+    <t>285475.0</t>
+  </si>
+  <si>
+    <t>3275453.0</t>
+  </si>
+  <si>
+    <t>939309.0</t>
+  </si>
+  <si>
+    <t>465572.0</t>
+  </si>
+  <si>
+    <t>539266.0</t>
+  </si>
+  <si>
+    <t>674702.0</t>
+  </si>
+  <si>
+    <t>646159.0</t>
+  </si>
+  <si>
+    <t>179306.0</t>
+  </si>
+  <si>
+    <t>3444314.0</t>
   </si>
   <si>
     <t>166780.0</t>
@@ -797,9 +1274,6 @@
     <t>441549.0</t>
   </si>
   <si>
-    <t>Virtual Reality Equipment Rental - Team Building Activity</t>
-  </si>
-  <si>
     <t>303533.0</t>
   </si>
   <si>
@@ -815,225 +1289,6 @@
     <t>1914160.0</t>
   </si>
   <si>
-    <t>913231.0</t>
-  </si>
-  <si>
-    <t>87668.0</t>
-  </si>
-  <si>
-    <t>787487.0</t>
-  </si>
-  <si>
-    <t>767314.0</t>
-  </si>
-  <si>
-    <t>38935.0</t>
-  </si>
-  <si>
-    <t>791553.0</t>
-  </si>
-  <si>
-    <t>3386188.0</t>
-  </si>
-  <si>
-    <t>989794.0</t>
-  </si>
-  <si>
-    <t>51878.0</t>
-  </si>
-  <si>
-    <t>623529.0</t>
-  </si>
-  <si>
-    <t>608876.0</t>
-  </si>
-  <si>
-    <t>711356.0</t>
-  </si>
-  <si>
-    <t>40733.0</t>
-  </si>
-  <si>
-    <t>3026166.0</t>
-  </si>
-  <si>
-    <t>393447.0</t>
-  </si>
-  <si>
-    <t>Virtual Reality Equipment Rental - Team Building Activi</t>
-  </si>
-  <si>
-    <t>466039.0</t>
-  </si>
-  <si>
-    <t>315818.0</t>
-  </si>
-  <si>
-    <t>742832.0</t>
-  </si>
-  <si>
-    <t>958255.0</t>
-  </si>
-  <si>
-    <t>217180.0</t>
-  </si>
-  <si>
-    <t>3093571.0</t>
-  </si>
-  <si>
-    <t>236966.0</t>
-  </si>
-  <si>
-    <t>8835.0</t>
-  </si>
-  <si>
-    <t>274184.0</t>
-  </si>
-  <si>
-    <t>Domain Name Registration Renewal SEO Optimization Service</t>
-  </si>
-  <si>
-    <t>940577.0</t>
-  </si>
-  <si>
-    <t>81605.0</t>
-  </si>
-  <si>
-    <t>1542167.0</t>
-  </si>
-  <si>
-    <t>797493.0</t>
-  </si>
-  <si>
-    <t>163318.0</t>
-  </si>
-  <si>
-    <t>877045.0</t>
-  </si>
-  <si>
-    <t>53240.0</t>
-  </si>
-  <si>
-    <t>181479.0</t>
-  </si>
-  <si>
-    <t>394503.0</t>
-  </si>
-  <si>
-    <t>2467078.0</t>
-  </si>
-  <si>
-    <t>76090.0</t>
-  </si>
-  <si>
-    <t>378051.0</t>
-  </si>
-  <si>
-    <t>874539.0</t>
-  </si>
-  <si>
-    <t>319470.0</t>
-  </si>
-  <si>
-    <t>90849.0</t>
-  </si>
-  <si>
-    <t>449965.0</t>
-  </si>
-  <si>
-    <t>2188964.0</t>
-  </si>
-  <si>
-    <t>278143.0</t>
-  </si>
-  <si>
-    <t>944533.0</t>
-  </si>
-  <si>
-    <t>67901.0</t>
-  </si>
-  <si>
-    <t>466537.0</t>
-  </si>
-  <si>
-    <t>16157.0</t>
-  </si>
-  <si>
-    <t>715147.0</t>
-  </si>
-  <si>
-    <t>2488418.0</t>
-  </si>
-  <si>
-    <t>444609.0</t>
-  </si>
-  <si>
-    <t>268077.0</t>
-  </si>
-  <si>
-    <t>146772.0</t>
-  </si>
-  <si>
-    <t>194119.0</t>
-  </si>
-  <si>
-    <t>16667.0</t>
-  </si>
-  <si>
-    <t>125277.0</t>
-  </si>
-  <si>
-    <t>1195521.0</t>
-  </si>
-  <si>
-    <t>928359.0</t>
-  </si>
-  <si>
-    <t>867804.0</t>
-  </si>
-  <si>
-    <t>965433.0</t>
-  </si>
-  <si>
-    <t>63912.0</t>
-  </si>
-  <si>
-    <t>80373.0</t>
-  </si>
-  <si>
-    <t>Translation Service - Document Translation (1000 words</t>
-  </si>
-  <si>
-    <t>394191.0</t>
-  </si>
-  <si>
-    <t>3300072.0</t>
-  </si>
-  <si>
-    <t>991078.0</t>
-  </si>
-  <si>
-    <t>183787.0</t>
-  </si>
-  <si>
-    <t>198685.0</t>
-  </si>
-  <si>
-    <t>Employee Recognition Awards (Set of 10</t>
-  </si>
-  <si>
-    <t>713130.0</t>
-  </si>
-  <si>
-    <t>426487.0</t>
-  </si>
-  <si>
-    <t>264503.0</t>
-  </si>
-  <si>
-    <t>2777670.0</t>
-  </si>
-  <si>
     <t>533232.0</t>
   </si>
   <si>
@@ -1055,46 +1310,25 @@
     <t>2275030.0</t>
   </si>
   <si>
-    <t>939309.0</t>
-  </si>
-  <si>
-    <t>465572.0</t>
-  </si>
-  <si>
-    <t>539266.0</t>
-  </si>
-  <si>
-    <t>674702.0</t>
-  </si>
-  <si>
-    <t>646159.0</t>
-  </si>
-  <si>
-    <t>179306.0</t>
-  </si>
-  <si>
-    <t>3444314.0</t>
-  </si>
-  <si>
-    <t>845231.0</t>
-  </si>
-  <si>
-    <t>565809.0</t>
-  </si>
-  <si>
-    <t>1882.0</t>
-  </si>
-  <si>
-    <t>637467.0</t>
-  </si>
-  <si>
-    <t>684214.0</t>
-  </si>
-  <si>
-    <t>425353.0</t>
-  </si>
-  <si>
-    <t>3159956.0</t>
+    <t>14458.0</t>
+  </si>
+  <si>
+    <t>688815.0</t>
+  </si>
+  <si>
+    <t>953629.0</t>
+  </si>
+  <si>
+    <t>5889.0</t>
+  </si>
+  <si>
+    <t>780543.0</t>
+  </si>
+  <si>
+    <t>350519.0</t>
+  </si>
+  <si>
+    <t>2793853.0</t>
   </si>
   <si>
     <t>404892.0</t>
@@ -1116,27 +1350,6 @@
   </si>
   <si>
     <t>2780863.0</t>
-  </si>
-  <si>
-    <t>14458.0</t>
-  </si>
-  <si>
-    <t>688815.0</t>
-  </si>
-  <si>
-    <t>953629.0</t>
-  </si>
-  <si>
-    <t>5889.0</t>
-  </si>
-  <si>
-    <t>780543.0</t>
-  </si>
-  <si>
-    <t>350519.0</t>
-  </si>
-  <si>
-    <t>2793853.0</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1357,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="186">
+  <fonts count="226">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1155,6 +1368,206 @@
     <font>
       <name val="Calibri"/>
       <sz val="28.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -2160,7 +2573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="734">
+  <cellXfs count="894">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2240,8 +2653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
@@ -2336,6 +2747,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
@@ -2718,6 +3131,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
@@ -2892,9 +3307,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2918,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9418.0</v>
+        <v>3568.0</v>
       </c>
     </row>
     <row r="4">
@@ -2991,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>9246.0</v>
+        <v>1717.0</v>
       </c>
     </row>
     <row r="14">
@@ -3044,10 +3617,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="31">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="32">
         <v>28</v>
-      </c>
-      <c r="B20" t="s" s="32">
-        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3055,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22"/>
@@ -3064,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>2488.0</v>
+        <v>6016.0</v>
       </c>
     </row>
     <row r="24">
@@ -3077,7 +3650,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="37">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s" s="38">
         <v>31</v>
@@ -3101,26 +3674,26 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="43">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s" s="44">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s" s="46">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="47">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s" s="48">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -3128,7 +3701,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32"/>
@@ -3137,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1298.0</v>
+        <v>8632.0</v>
       </c>
     </row>
     <row r="34">
@@ -3150,50 +3723,50 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="53">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s" s="54">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="55">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s" s="56">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="57">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s" s="58">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="59">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s" s="60">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="61">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s" s="62">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="63">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s" s="64">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -3201,7 +3774,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42"/>
@@ -3210,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>5758.0</v>
+        <v>5599.0</v>
       </c>
     </row>
     <row r="44">
@@ -3223,23 +3796,23 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="69">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s" s="70">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="71">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s" s="72">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="73">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s" s="74">
         <v>55</v>
@@ -3247,205 +3820,205 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="75">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s" s="76">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="77">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s" s="78">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="79">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s" s="80">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="81">
         <v>16</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52"/>
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="s" s="80">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5650.0</v>
+      </c>
+    </row>
     <row r="53">
-      <c r="A53" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="B53" t="n">
-        <v>830.0</v>
+      <c r="A53" t="s" s="81">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s" s="82">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="83">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s" s="84">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="85">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s" s="86">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="87">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s" s="88">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="89">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s" s="90">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="91">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s" s="92">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="93">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s" s="94">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="95">
-        <v>24</v>
-      </c>
-      <c r="B60" t="s" s="96">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="97">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62"/>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1298.0</v>
+      </c>
+    </row>
     <row r="63">
-      <c r="A63" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3568.0</v>
+      <c r="A63" t="s" s="97">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s" s="98">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="99">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s" s="100">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="101">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s" s="102">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="103">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s" s="104">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="105">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s" s="106">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="107">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s" s="108">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="109">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s" s="110">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="111">
-        <v>75</v>
-      </c>
-      <c r="B70" t="s" s="112">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="113">
         <v>16</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72"/>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>830.0</v>
+      </c>
+    </row>
     <row r="73">
-      <c r="A73" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2068.0</v>
+      <c r="A73" t="s" s="113">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s" s="114">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="115">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s" s="116">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="117">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s" s="118">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -3453,250 +4026,250 @@
         <v>10</v>
       </c>
       <c r="B76" t="s" s="120">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="121">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s" s="122">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="123">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s" s="124">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="125">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s" s="126">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="127">
-        <v>65</v>
-      </c>
-      <c r="B80" t="s" s="128">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="129">
         <v>16</v>
       </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82"/>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>778.0</v>
+      </c>
+    </row>
     <row r="83">
-      <c r="A83" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="B83" t="n">
-        <v>584.0</v>
+      <c r="A83" t="s" s="129">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s" s="130">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s" s="132">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="133">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s" s="134">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="135">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s" s="136">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="137">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s" s="138">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="139">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s" s="140">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="141">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s" s="142">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="143">
-        <v>46</v>
-      </c>
-      <c r="B90" t="s" s="144">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="145">
         <v>16</v>
       </c>
-      <c r="B91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92"/>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="A92" t="s" s="144">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9246.0</v>
+      </c>
+    </row>
     <row r="93">
-      <c r="A93" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="B93" t="n">
-        <v>9028.0</v>
+      <c r="A93" t="s" s="145">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s" s="146">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="147">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s" s="148">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="149">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s" s="150">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="151">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s" s="152">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="153">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s" s="154">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="155">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s" s="156">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="157">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s" s="158">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="159">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s" s="160">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="161">
         <v>16</v>
       </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102"/>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101"/>
+    <row r="102">
+      <c r="A102" t="s" s="160">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6713.0</v>
+      </c>
+    </row>
     <row r="103">
-      <c r="A103" t="s" s="162">
-        <v>1</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5599.0</v>
+      <c r="A103" t="s" s="161">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s" s="162">
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="163">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s" s="164">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="165">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s" s="166">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="167">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s" s="168">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="169">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s" s="170">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="171">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s" s="172">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="173">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s" s="174">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
@@ -3704,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111"/>
@@ -3713,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>60.0</v>
+        <v>4763.0</v>
       </c>
     </row>
     <row r="113">
@@ -3726,50 +4299,50 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="179">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s" s="180">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="181">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s" s="182">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="183">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s" s="184">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="185">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s" s="186">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="187">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s" s="188">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="189">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B119" t="s" s="190">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
@@ -3777,7 +4350,7 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121"/>
@@ -3786,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>7350.0</v>
+        <v>1513.0</v>
       </c>
     </row>
     <row r="123">
@@ -3799,50 +4372,50 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="195">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B124" t="s" s="196">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="197">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s" s="198">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="199">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s" s="200">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="201">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s" s="202">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="203">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s" s="204">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="205">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s" s="206">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -3850,7 +4423,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131"/>
@@ -3859,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="B132" t="n">
-        <v>1717.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="133">
@@ -3872,15 +4445,15 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="211">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s" s="212">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="213">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s" s="214">
         <v>131</v>
@@ -3888,7 +4461,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="215">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s" s="216">
         <v>132</v>
@@ -3896,7 +4469,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="217">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B137" t="s" s="218">
         <v>133</v>
@@ -3904,7 +4477,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="219">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B138" t="s" s="220">
         <v>134</v>
@@ -3912,7 +4485,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="221">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s" s="222">
         <v>135</v>
@@ -3932,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>2414.0</v>
+        <v>2854.0</v>
       </c>
     </row>
     <row r="143">
@@ -3945,7 +4518,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="227">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s" s="228">
         <v>137</v>
@@ -3953,7 +4526,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="229">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B145" t="s" s="230">
         <v>138</v>
@@ -3961,7 +4534,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="231">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s" s="232">
         <v>139</v>
@@ -3969,7 +4542,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="233">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B147" t="s" s="234">
         <v>140</v>
@@ -3977,7 +4550,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="235">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B148" t="s" s="236">
         <v>141</v>
@@ -4005,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>778.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="153">
@@ -4018,7 +4591,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="243">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s" s="244">
         <v>145</v>
@@ -4026,42 +4599,42 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="245">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s" s="246">
         <v>146</v>
-      </c>
-      <c r="B155" t="s" s="246">
-        <v>147</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="247">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B156" t="s" s="248">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="249">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s" s="250">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="251">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B158" t="s" s="252">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="253">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s" s="254">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
@@ -4069,7 +4642,7 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161"/>
@@ -4078,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>6016.0</v>
+        <v>8173.0</v>
       </c>
     </row>
     <row r="163">
@@ -4091,50 +4664,50 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="259">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="B164" t="s" s="260">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="261">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B165" t="s" s="262">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="263">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B166" t="s" s="264">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="265">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B167" t="s" s="266">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="267">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B168" t="s" s="268">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="269">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s" s="270">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170">
@@ -4142,7 +4715,7 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171"/>
@@ -4151,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>5650.0</v>
+        <v>1228.0</v>
       </c>
     </row>
     <row r="173">
@@ -4164,50 +4737,50 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="275">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s" s="276">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="277">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s" s="278">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="279">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s" s="280">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="281">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s" s="282">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="283">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B178" t="s" s="284">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="285">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B179" t="s" s="286">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180">
@@ -4215,7 +4788,7 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181"/>
@@ -4224,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="B182" t="n">
-        <v>9115.0</v>
+        <v>7797.0</v>
       </c>
     </row>
     <row r="183">
@@ -4237,10 +4810,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="291">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B184" t="s" s="292">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185">
@@ -4248,23 +4821,23 @@
         <v>62</v>
       </c>
       <c r="B185" t="s" s="294">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="295">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s" s="296">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="297">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B187" t="s" s="298">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188">
@@ -4272,15 +4845,15 @@
         <v>32</v>
       </c>
       <c r="B188" t="s" s="300">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="301">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B189" t="s" s="302">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190">
@@ -4288,7 +4861,7 @@
         <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191"/>
@@ -4297,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="B192" t="n">
-        <v>8295.0</v>
+        <v>9720.0</v>
       </c>
     </row>
     <row r="193">
@@ -4310,50 +4883,50 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="307">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="B194" t="s" s="308">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="309">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s" s="310">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="311">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B196" t="s" s="312">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="313">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B197" t="s" s="314">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="315">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s" s="316">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="317">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B199" t="s" s="318">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200">
@@ -4361,7 +4934,7 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201"/>
@@ -4370,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>2854.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="203">
@@ -4383,31 +4956,31 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="323">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s" s="324">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="325">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s" s="326">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="327">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B206" t="s" s="328">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="329">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B207" t="s" s="330">
         <v>186</v>
@@ -4423,10 +4996,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="333">
+        <v>34</v>
+      </c>
+      <c r="B209" t="s" s="334">
         <v>188</v>
-      </c>
-      <c r="B209" t="s" s="334">
-        <v>189</v>
       </c>
     </row>
     <row r="210">
@@ -4434,7 +5007,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="211"/>
@@ -4443,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="B212" t="n">
-        <v>2190.0</v>
+        <v>9028.0</v>
       </c>
     </row>
     <row r="213">
@@ -4456,47 +5029,47 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="339">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B214" t="s" s="340">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="341">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B215" t="s" s="342">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="343">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B216" t="s" s="344">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="345">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="B217" t="s" s="346">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="347">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B218" t="s" s="348">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="349">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="B219" t="s" s="350">
         <v>197</v>
@@ -4516,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="B222" t="n">
-        <v>605.0</v>
+        <v>584.0</v>
       </c>
     </row>
     <row r="223">
@@ -4529,7 +5102,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="355">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B224" t="s" s="356">
         <v>199</v>
@@ -4537,7 +5110,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="357">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B225" t="s" s="358">
         <v>200</v>
@@ -4545,7 +5118,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="359">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B226" t="s" s="360">
         <v>201</v>
@@ -4553,7 +5126,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="361">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="B227" t="s" s="362">
         <v>202</v>
@@ -4561,7 +5134,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="363">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B228" t="s" s="364">
         <v>203</v>
@@ -4569,7 +5142,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="365">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B229" t="s" s="366">
         <v>204</v>
@@ -4589,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B232" t="n">
-        <v>7360.0</v>
+        <v>1462.0</v>
       </c>
     </row>
     <row r="233">
@@ -4602,7 +5175,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="371">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B234" t="s" s="372">
         <v>206</v>
@@ -4610,7 +5183,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="373">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B235" t="s" s="374">
         <v>207</v>
@@ -4618,15 +5191,15 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="375">
+        <v>8</v>
+      </c>
+      <c r="B236" t="s" s="376">
         <v>208</v>
-      </c>
-      <c r="B236" t="s" s="376">
-        <v>209</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="377">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="B237" t="s" s="378">
         <v>210</v>
@@ -4634,18 +5207,18 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="379">
+        <v>209</v>
+      </c>
+      <c r="B238" t="s" s="380">
         <v>211</v>
-      </c>
-      <c r="B238" t="s" s="380">
-        <v>212</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="381">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B239" t="s" s="382">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="240">
@@ -4653,7 +5226,7 @@
         <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241"/>
@@ -4662,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="B242" t="n">
-        <v>1205.0</v>
+        <v>8922.0</v>
       </c>
     </row>
     <row r="243">
@@ -4675,7 +5248,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="387">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="B244" t="s" s="388">
         <v>215</v>
@@ -4683,7 +5256,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="389">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B245" t="s" s="390">
         <v>216</v>
@@ -4691,7 +5264,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="391">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B246" t="s" s="392">
         <v>217</v>
@@ -4699,7 +5272,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="393">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B247" t="s" s="394">
         <v>218</v>
@@ -4707,7 +5280,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="395">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B248" t="s" s="396">
         <v>219</v>
@@ -4715,7 +5288,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="397">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B249" t="s" s="398">
         <v>220</v>
@@ -4735,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="B252" t="n">
-        <v>890.0</v>
+        <v>2488.0</v>
       </c>
     </row>
     <row r="253">
@@ -4748,7 +5321,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="403">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B254" t="s" s="404">
         <v>222</v>
@@ -4756,42 +5329,42 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="405">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="B255" t="s" s="406">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="407">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B256" t="s" s="408">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="409">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B257" t="s" s="410">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="411">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="B258" t="s" s="412">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="413">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B259" t="s" s="414">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="260">
@@ -4799,7 +5372,7 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="261"/>
@@ -4808,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="B262" t="n">
-        <v>6162.0</v>
+        <v>5758.0</v>
       </c>
     </row>
     <row r="263">
@@ -4821,50 +5394,50 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="419">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B264" t="s" s="420">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="421">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B265" t="s" s="422">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="423">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B266" t="s" s="424">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="425">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="B267" t="s" s="426">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="427">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B268" t="s" s="428">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="429">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="B269" t="s" s="430">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="270">
@@ -4872,7 +5445,7 @@
         <v>16</v>
       </c>
       <c r="B270" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="271"/>
@@ -4881,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>9720.0</v>
+        <v>8993.0</v>
       </c>
     </row>
     <row r="273">
@@ -4894,50 +5467,50 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="435">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B274" t="s" s="436">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="437">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B275" t="s" s="438">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="439">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s" s="440">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="441">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s" s="442">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="443">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B278" t="s" s="444">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="445">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B279" t="s" s="446">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="280">
@@ -4945,7 +5518,7 @@
         <v>16</v>
       </c>
       <c r="B280" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="281"/>
@@ -4954,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="B282" t="n">
-        <v>1315.0</v>
+        <v>7555.0</v>
       </c>
     </row>
     <row r="283">
@@ -4967,50 +5540,50 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="451">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B284" t="s" s="452">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="453">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="B285" t="s" s="454">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="455">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B286" t="s" s="456">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="457">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B287" t="s" s="458">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="459">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B288" t="s" s="460">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="461">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="B289" t="s" s="462">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="290">
@@ -5018,7 +5591,7 @@
         <v>16</v>
       </c>
       <c r="B290" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="291"/>
@@ -5027,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="B292" t="n">
-        <v>5848.0</v>
+        <v>8536.0</v>
       </c>
     </row>
     <row r="293">
@@ -5040,50 +5613,50 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="467">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="B294" t="s" s="468">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="469">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="B295" t="s" s="470">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="471">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B296" t="s" s="472">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="473">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B297" t="s" s="474">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="475">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="B298" t="s" s="476">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="477">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B299" t="s" s="478">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="300">
@@ -5091,7 +5664,7 @@
         <v>16</v>
       </c>
       <c r="B300" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="301"/>
@@ -5100,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="B302" t="n">
-        <v>801.0</v>
+        <v>2068.0</v>
       </c>
     </row>
     <row r="303">
@@ -5113,31 +5686,31 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="483">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B304" t="s" s="484">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="485">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B305" t="s" s="486">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="487">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B306" t="s" s="488">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="489">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B307" t="s" s="490">
         <v>262</v>
@@ -5145,18 +5718,18 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="491">
+        <v>99</v>
+      </c>
+      <c r="B308" t="s" s="492">
         <v>263</v>
-      </c>
-      <c r="B308" t="s" s="492">
-        <v>264</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="493">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B309" t="s" s="494">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="310">
@@ -5164,7 +5737,7 @@
         <v>16</v>
       </c>
       <c r="B310" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="311"/>
@@ -5173,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="B312" t="n">
-        <v>3994.0</v>
+        <v>9866.0</v>
       </c>
     </row>
     <row r="313">
@@ -5186,50 +5759,50 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="499">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B314" t="s" s="500">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="501">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="B315" t="s" s="502">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="503">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B316" t="s" s="504">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="505">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="B317" t="s" s="506">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="507">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="B318" t="s" s="508">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="509">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B319" t="s" s="510">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="320">
@@ -5237,7 +5810,7 @@
         <v>16</v>
       </c>
       <c r="B320" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="321"/>
@@ -5246,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="B322" t="n">
-        <v>8173.0</v>
+        <v>2414.0</v>
       </c>
     </row>
     <row r="323">
@@ -5259,50 +5832,50 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="515">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s" s="516">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="517">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B325" t="s" s="518">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="519">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="B326" t="s" s="520">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="521">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="B327" t="s" s="522">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="523">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="B328" t="s" s="524">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="525">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B329" t="s" s="526">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="330">
@@ -5310,7 +5883,7 @@
         <v>16</v>
       </c>
       <c r="B330" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="331"/>
@@ -5319,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="n">
-        <v>329.0</v>
+        <v>8295.0</v>
       </c>
     </row>
     <row r="333">
@@ -5332,50 +5905,50 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="531">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="B334" t="s" s="532">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="533">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="B335" t="s" s="534">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="535">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B336" t="s" s="536">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="537">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="B337" t="s" s="538">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="539">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B338" t="s" s="540">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="541">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="B339" t="s" s="542">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="340">
@@ -5383,7 +5956,7 @@
         <v>16</v>
       </c>
       <c r="B340" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="341"/>
@@ -5392,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="B342" t="n">
-        <v>5983.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="343">
@@ -5405,440 +5978,440 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="547">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B344" t="s" s="548">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="549">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B345" t="s" s="550">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="551">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B346" t="s" s="552">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="553">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="B347" t="s" s="554">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="555">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="B348" t="s" s="556">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="557">
+        <v>26</v>
+      </c>
+      <c r="B349" t="s" s="558">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="559">
         <v>16</v>
       </c>
-      <c r="B349" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="350"/>
-    <row r="351">
-      <c r="A351" t="s" s="558">
+      <c r="B350" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="351"/>
+    <row r="352">
+      <c r="A352" t="s" s="560">
         <v>1</v>
       </c>
-      <c r="B351" t="n">
-        <v>7270.0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s" s="559">
-        <v>2</v>
-      </c>
-      <c r="B352" t="s" s="560">
-        <v>3</v>
+      <c r="B352" t="n">
+        <v>1315.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="561">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="B353" t="s" s="562">
-        <v>296</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="563">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B354" t="s" s="564">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="565">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="B355" t="s" s="566">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="567">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B356" t="s" s="568">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="569">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B357" t="s" s="570">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="571">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="B358" t="s" s="572">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="573">
+        <v>34</v>
+      </c>
+      <c r="B359" t="s" s="574">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="575">
         <v>16</v>
       </c>
-      <c r="B359" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="360"/>
-    <row r="361">
-      <c r="A361" t="s" s="574">
+      <c r="B360" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="361"/>
+    <row r="362">
+      <c r="A362" t="s" s="576">
         <v>1</v>
       </c>
-      <c r="B361" t="n">
-        <v>1513.0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s" s="575">
-        <v>2</v>
-      </c>
-      <c r="B362" t="s" s="576">
-        <v>3</v>
+      <c r="B362" t="n">
+        <v>2001.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="577">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B363" t="s" s="578">
-        <v>303</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="579">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B364" t="s" s="580">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="581">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B365" t="s" s="582">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="583">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B366" t="s" s="584">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="585">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="B367" t="s" s="586">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="587">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B368" t="s" s="588">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="589">
+        <v>196</v>
+      </c>
+      <c r="B369" t="s" s="590">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="591">
         <v>16</v>
       </c>
-      <c r="B369" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="370"/>
-    <row r="371">
-      <c r="A371" t="s" s="590">
+      <c r="B370" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="371"/>
+    <row r="372">
+      <c r="A372" t="s" s="592">
         <v>1</v>
       </c>
-      <c r="B371" t="n">
-        <v>4763.0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s" s="591">
-        <v>2</v>
-      </c>
-      <c r="B372" t="s" s="592">
-        <v>3</v>
+      <c r="B372" t="n">
+        <v>9418.0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="593">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B373" t="s" s="594">
-        <v>310</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="595">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="B374" t="s" s="596">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="597">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B375" t="s" s="598">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="599">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B376" t="s" s="600">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="601">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B377" t="s" s="602">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="603">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B378" t="s" s="604">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="605">
+        <v>4</v>
+      </c>
+      <c r="B379" t="s" s="606">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="607">
         <v>16</v>
       </c>
-      <c r="B379" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="380"/>
-    <row r="381">
-      <c r="A381" t="s" s="606">
+      <c r="B380" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="381"/>
+    <row r="382">
+      <c r="A382" t="s" s="608">
         <v>1</v>
       </c>
-      <c r="B381" t="n">
-        <v>1228.0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s" s="607">
-        <v>2</v>
-      </c>
-      <c r="B382" t="s" s="608">
-        <v>3</v>
+      <c r="B382" t="n">
+        <v>9115.0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="609">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B383" t="s" s="610">
-        <v>317</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="611">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B384" t="s" s="612">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="613">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B385" t="s" s="614">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="615">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B386" t="s" s="616">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="617">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B387" t="s" s="618">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="619">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B388" t="s" s="620">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="621">
+        <v>56</v>
+      </c>
+      <c r="B389" t="s" s="622">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="623">
         <v>16</v>
       </c>
-      <c r="B389" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="390"/>
-    <row r="391">
-      <c r="A391" t="s" s="622">
+      <c r="B390" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="391"/>
+    <row r="392">
+      <c r="A392" t="s" s="624">
         <v>1</v>
       </c>
-      <c r="B391" t="n">
-        <v>7797.0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s" s="623">
-        <v>2</v>
-      </c>
-      <c r="B392" t="s" s="624">
-        <v>3</v>
+      <c r="B392" t="n">
+        <v>7350.0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s" s="625">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B393" t="s" s="626">
-        <v>324</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s" s="627">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="B394" t="s" s="628">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="629">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B395" t="s" s="630">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="631">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B396" t="s" s="632">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="633">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B397" t="s" s="634">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="635">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="B398" t="s" s="636">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="637">
+        <v>102</v>
+      </c>
+      <c r="B399" t="s" s="638">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="639">
         <v>16</v>
       </c>
-      <c r="B399" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="400"/>
-    <row r="401">
-      <c r="A401" t="s" s="638">
+      <c r="B400" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="401"/>
+    <row r="402">
+      <c r="A402" t="s" s="640">
         <v>1</v>
       </c>
-      <c r="B401" t="n">
-        <v>1462.0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="639">
-        <v>2</v>
-      </c>
-      <c r="B402" t="s" s="640">
-        <v>3</v>
+      <c r="B402" t="n">
+        <v>5848.0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="641">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B403" t="s" s="642">
-        <v>332</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -5846,145 +6419,145 @@
         <v>44</v>
       </c>
       <c r="B404" t="s" s="644">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="645">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B405" t="s" s="646">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="647">
-        <v>335</v>
+        <v>72</v>
       </c>
       <c r="B406" t="s" s="648">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="649">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="B407" t="s" s="650">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="651">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="B408" t="s" s="652">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="653">
+        <v>14</v>
+      </c>
+      <c r="B409" t="s" s="654">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="655">
         <v>16</v>
       </c>
-      <c r="B409" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="410"/>
-    <row r="411">
-      <c r="A411" t="s" s="654">
+      <c r="B410" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="411"/>
+    <row r="412">
+      <c r="A412" t="s" s="656">
         <v>1</v>
       </c>
-      <c r="B411" t="n">
-        <v>1404.0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s" s="655">
-        <v>2</v>
-      </c>
-      <c r="B412" t="s" s="656">
-        <v>3</v>
+      <c r="B412" t="n">
+        <v>3994.0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="657">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B413" t="s" s="658">
-        <v>340</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="659">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="B414" t="s" s="660">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="661">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="B415" t="s" s="662">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="663">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B416" t="s" s="664">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="665">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="B417" t="s" s="666">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="667">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B418" t="s" s="668">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="669">
+        <v>6</v>
+      </c>
+      <c r="B419" t="s" s="670">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="671">
         <v>16</v>
       </c>
-      <c r="B419" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="420"/>
-    <row r="421">
-      <c r="A421" t="s" s="670">
+      <c r="B420" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="421"/>
+    <row r="422">
+      <c r="A422" t="s" s="672">
         <v>1</v>
       </c>
-      <c r="B421" t="n">
-        <v>7091.0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s" s="671">
-        <v>2</v>
-      </c>
-      <c r="B422" t="s" s="672">
-        <v>3</v>
+      <c r="B422" t="n">
+        <v>6162.0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="673">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B423" t="s" s="674">
-        <v>347</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -5992,258 +6565,258 @@
         <v>22</v>
       </c>
       <c r="B424" t="s" s="676">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="677">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B425" t="s" s="678">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="679">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B426" t="s" s="680">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="681">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="B427" t="s" s="682">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s" s="683">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B428" t="s" s="684">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="685">
+        <v>91</v>
+      </c>
+      <c r="B429" t="s" s="686">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="687">
         <v>16</v>
       </c>
-      <c r="B429" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="430"/>
-    <row r="431">
-      <c r="A431" t="s" s="686">
+      <c r="B430" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="431"/>
+    <row r="432">
+      <c r="A432" t="s" s="688">
         <v>1</v>
       </c>
-      <c r="B431" t="n">
-        <v>8536.0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s" s="687">
-        <v>2</v>
-      </c>
-      <c r="B432" t="s" s="688">
-        <v>3</v>
+      <c r="B432" t="n">
+        <v>7270.0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s" s="689">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B433" t="s" s="690">
-        <v>354</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s" s="691">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="B434" t="s" s="692">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="693">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="B435" t="s" s="694">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="695">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="B436" t="s" s="696">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="697">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="B437" t="s" s="698">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="699">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B438" t="s" s="700">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="701">
+        <v>42</v>
+      </c>
+      <c r="B439" t="s" s="702">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="703">
         <v>16</v>
       </c>
-      <c r="B439" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="440"/>
-    <row r="441">
-      <c r="A441" t="s" s="702">
+      <c r="B440" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="441"/>
+    <row r="442">
+      <c r="A442" t="s" s="704">
         <v>1</v>
       </c>
-      <c r="B441" t="n">
-        <v>6613.0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s" s="703">
-        <v>2</v>
-      </c>
-      <c r="B442" t="s" s="704">
-        <v>3</v>
+      <c r="B442" t="n">
+        <v>1205.0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="705">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B443" t="s" s="706">
-        <v>361</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="707">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B444" t="s" s="708">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="709">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="B445" t="s" s="710">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s" s="711">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B446" t="s" s="712">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s" s="713">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B447" t="s" s="714">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="715">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="B448" t="s" s="716">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="717">
+        <v>14</v>
+      </c>
+      <c r="B449" t="s" s="718">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="719">
         <v>16</v>
       </c>
-      <c r="B449" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="450"/>
-    <row r="451">
-      <c r="A451" t="s" s="718">
+      <c r="B450" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="451"/>
+    <row r="452">
+      <c r="A452" t="s" s="720">
         <v>1</v>
       </c>
-      <c r="B451" t="n">
-        <v>3649.0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s" s="719">
-        <v>2</v>
-      </c>
-      <c r="B452" t="s" s="720">
-        <v>3</v>
+      <c r="B452" t="n">
+        <v>5983.0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="721">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="B453" t="s" s="722">
-        <v>368</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s" s="723">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="B454" t="s" s="724">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="725">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B455" t="s" s="726">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="727">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B456" t="s" s="728">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s" s="729">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="B457" t="s" s="730">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s" s="731">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="B458" t="s" s="732">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="459">
@@ -6251,10 +6824,740 @@
         <v>16</v>
       </c>
       <c r="B459" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="460"/>
+    <row r="461">
+      <c r="A461" t="s" s="734">
+        <v>1</v>
+      </c>
+      <c r="B461" t="n">
+        <v>7360.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="735">
+        <v>2</v>
+      </c>
+      <c r="B462" t="s" s="736">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="737">
+        <v>18</v>
+      </c>
+      <c r="B463" t="s" s="738">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="739">
+        <v>49</v>
+      </c>
+      <c r="B464" t="s" s="740">
         <v>374</v>
       </c>
     </row>
-    <row r="460"/>
+    <row r="465">
+      <c r="A465" t="s" s="741">
+        <v>353</v>
+      </c>
+      <c r="B465" t="s" s="742">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="743">
+        <v>18</v>
+      </c>
+      <c r="B466" t="s" s="744">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="745">
+        <v>377</v>
+      </c>
+      <c r="B467" t="s" s="746">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="747">
+        <v>12</v>
+      </c>
+      <c r="B468" t="s" s="748">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="749">
+        <v>16</v>
+      </c>
+      <c r="B469" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="470"/>
+    <row r="471">
+      <c r="A471" t="s" s="750">
+        <v>1</v>
+      </c>
+      <c r="B471" t="n">
+        <v>3913.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="751">
+        <v>2</v>
+      </c>
+      <c r="B472" t="s" s="752">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="753">
+        <v>381</v>
+      </c>
+      <c r="B473" t="s" s="754">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="755">
+        <v>80</v>
+      </c>
+      <c r="B474" t="s" s="756">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="757">
+        <v>185</v>
+      </c>
+      <c r="B475" t="s" s="758">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="759">
+        <v>44</v>
+      </c>
+      <c r="B476" t="s" s="760">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="761">
+        <v>91</v>
+      </c>
+      <c r="B477" t="s" s="762">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="763">
+        <v>14</v>
+      </c>
+      <c r="B478" t="s" s="764">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="765">
+        <v>16</v>
+      </c>
+      <c r="B479" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="480"/>
+    <row r="481">
+      <c r="A481" t="s" s="766">
+        <v>1</v>
+      </c>
+      <c r="B481" t="n">
+        <v>890.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="767">
+        <v>2</v>
+      </c>
+      <c r="B482" t="s" s="768">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="769">
+        <v>193</v>
+      </c>
+      <c r="B483" t="s" s="770">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="771">
+        <v>223</v>
+      </c>
+      <c r="B484" t="s" s="772">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="773">
+        <v>62</v>
+      </c>
+      <c r="B485" t="s" s="774">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="775">
+        <v>123</v>
+      </c>
+      <c r="B486" t="s" s="776">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="777">
+        <v>123</v>
+      </c>
+      <c r="B487" t="s" s="778">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="779">
+        <v>44</v>
+      </c>
+      <c r="B488" t="s" s="780">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="781">
+        <v>16</v>
+      </c>
+      <c r="B489" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="490"/>
+    <row r="491">
+      <c r="A491" t="s" s="782">
+        <v>1</v>
+      </c>
+      <c r="B491" t="n">
+        <v>2190.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="783">
+        <v>2</v>
+      </c>
+      <c r="B492" t="s" s="784">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="785">
+        <v>8</v>
+      </c>
+      <c r="B493" t="s" s="786">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="787">
+        <v>20</v>
+      </c>
+      <c r="B494" t="s" s="788">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="789">
+        <v>126</v>
+      </c>
+      <c r="B495" t="s" s="790">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="791">
+        <v>56</v>
+      </c>
+      <c r="B496" t="s" s="792">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="793">
+        <v>42</v>
+      </c>
+      <c r="B497" t="s" s="794">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="795">
+        <v>18</v>
+      </c>
+      <c r="B498" t="s" s="796">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="797">
+        <v>16</v>
+      </c>
+      <c r="B499" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="500"/>
+    <row r="501">
+      <c r="A501" t="s" s="798">
+        <v>1</v>
+      </c>
+      <c r="B501" t="n">
+        <v>4634.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="799">
+        <v>2</v>
+      </c>
+      <c r="B502" t="s" s="800">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="801">
+        <v>42</v>
+      </c>
+      <c r="B503" t="s" s="802">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="803">
+        <v>193</v>
+      </c>
+      <c r="B504" t="s" s="804">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="805">
+        <v>185</v>
+      </c>
+      <c r="B505" t="s" s="806">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="807">
+        <v>56</v>
+      </c>
+      <c r="B506" t="s" s="808">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="809">
+        <v>6</v>
+      </c>
+      <c r="B507" t="s" s="810">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="811">
+        <v>185</v>
+      </c>
+      <c r="B508" t="s" s="812">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="813">
+        <v>16</v>
+      </c>
+      <c r="B509" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="510"/>
+    <row r="511">
+      <c r="A511" t="s" s="814">
+        <v>1</v>
+      </c>
+      <c r="B511" t="n">
+        <v>7091.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="815">
+        <v>2</v>
+      </c>
+      <c r="B512" t="s" s="816">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="817">
+        <v>12</v>
+      </c>
+      <c r="B513" t="s" s="818">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="819">
+        <v>99</v>
+      </c>
+      <c r="B514" t="s" s="820">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="821">
+        <v>20</v>
+      </c>
+      <c r="B515" t="s" s="822">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="823">
+        <v>93</v>
+      </c>
+      <c r="B516" t="s" s="824">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="825">
+        <v>126</v>
+      </c>
+      <c r="B517" t="s" s="826">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="827">
+        <v>89</v>
+      </c>
+      <c r="B518" t="s" s="828">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="829">
+        <v>16</v>
+      </c>
+      <c r="B519" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="520"/>
+    <row r="521">
+      <c r="A521" t="s" s="830">
+        <v>1</v>
+      </c>
+      <c r="B521" t="n">
+        <v>801.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="831">
+        <v>2</v>
+      </c>
+      <c r="B522" t="s" s="832">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="833">
+        <v>89</v>
+      </c>
+      <c r="B523" t="s" s="834">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="835">
+        <v>62</v>
+      </c>
+      <c r="B524" t="s" s="836">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="837">
+        <v>44</v>
+      </c>
+      <c r="B525" t="s" s="838">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="839">
+        <v>46</v>
+      </c>
+      <c r="B526" t="s" s="840">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="841">
+        <v>421</v>
+      </c>
+      <c r="B527" t="s" s="842">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="843">
+        <v>56</v>
+      </c>
+      <c r="B528" t="s" s="844">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="845">
+        <v>16</v>
+      </c>
+      <c r="B529" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="530"/>
+    <row r="531">
+      <c r="A531" t="s" s="846">
+        <v>1</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1404.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="847">
+        <v>2</v>
+      </c>
+      <c r="B532" t="s" s="848">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="849">
+        <v>99</v>
+      </c>
+      <c r="B533" t="s" s="850">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="851">
+        <v>214</v>
+      </c>
+      <c r="B534" t="s" s="852">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="853">
+        <v>353</v>
+      </c>
+      <c r="B535" t="s" s="854">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="855">
+        <v>227</v>
+      </c>
+      <c r="B536" t="s" s="856">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="857">
+        <v>182</v>
+      </c>
+      <c r="B537" t="s" s="858">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="859">
+        <v>76</v>
+      </c>
+      <c r="B538" t="s" s="860">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="861">
+        <v>16</v>
+      </c>
+      <c r="B539" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="540"/>
+    <row r="541">
+      <c r="A541" t="s" s="862">
+        <v>1</v>
+      </c>
+      <c r="B541" t="n">
+        <v>3649.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="863">
+        <v>2</v>
+      </c>
+      <c r="B542" t="s" s="864">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="865">
+        <v>142</v>
+      </c>
+      <c r="B543" t="s" s="866">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="867">
+        <v>126</v>
+      </c>
+      <c r="B544" t="s" s="868">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="869">
+        <v>24</v>
+      </c>
+      <c r="B545" t="s" s="870">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="871">
+        <v>196</v>
+      </c>
+      <c r="B546" t="s" s="872">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="873">
+        <v>4</v>
+      </c>
+      <c r="B547" t="s" s="874">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="875">
+        <v>142</v>
+      </c>
+      <c r="B548" t="s" s="876">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="877">
+        <v>16</v>
+      </c>
+      <c r="B549" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="550"/>
+    <row r="551">
+      <c r="A551" t="s" s="878">
+        <v>1</v>
+      </c>
+      <c r="B551" t="n">
+        <v>6613.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="879">
+        <v>2</v>
+      </c>
+      <c r="B552" t="s" s="880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="881">
+        <v>24</v>
+      </c>
+      <c r="B553" t="s" s="882">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="883">
+        <v>12</v>
+      </c>
+      <c r="B554" t="s" s="884">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="885">
+        <v>126</v>
+      </c>
+      <c r="B555" t="s" s="886">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="887">
+        <v>193</v>
+      </c>
+      <c r="B556" t="s" s="888">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="889">
+        <v>4</v>
+      </c>
+      <c r="B557" t="s" s="890">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="891">
+        <v>42</v>
+      </c>
+      <c r="B558" t="s" s="892">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="893">
+        <v>16</v>
+      </c>
+      <c r="B559" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="560"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
